--- a/GrizWt.xlsx
+++ b/GrizWt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massey/Dropbox/Griz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6895CF52-8867-5941-989E-7E61D67E8CE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F363228B-CD6E-6044-A9D7-C54BFBAAA2B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="3740" windowWidth="28260" windowHeight="16220" xr2:uid="{442F6D33-47C8-EF45-9E8B-4B6E9BCB0EB8}"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="28260" windowHeight="16220" xr2:uid="{442F6D33-47C8-EF45-9E8B-4B6E9BCB0EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DF0AEF-0FAE-B446-938E-395ABA109CC9}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -559,6 +559,30 @@
         <v>44546</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8.6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>11.2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>9.6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GrizWt.xlsx
+++ b/GrizWt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massey/Dropbox/Griz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F363228B-CD6E-6044-A9D7-C54BFBAAA2B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B7A90-A0C9-3147-ADFA-59BE804EC5B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28260" windowHeight="16220" xr2:uid="{442F6D33-47C8-EF45-9E8B-4B6E9BCB0EB8}"/>
   </bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DF0AEF-0FAE-B446-938E-395ABA109CC9}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -583,6 +583,30 @@
         <v>44551</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8.9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7.4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>11.1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44557</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GrizWt.xlsx
+++ b/GrizWt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massey/Dropbox/Griz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6B7A90-A0C9-3147-ADFA-59BE804EC5B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6210A5E4-D59B-F048-916F-0390AA33FA6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28260" windowHeight="16220" xr2:uid="{442F6D33-47C8-EF45-9E8B-4B6E9BCB0EB8}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>date</t>
   </si>
   <si>
     <t>oz</t>
+  </si>
+  <si>
+    <t>DeltaDays</t>
   </si>
 </sst>
 </file>
@@ -383,228 +386,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DF0AEF-0FAE-B446-938E-395ABA109CC9}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11.2</v>
       </c>
       <c r="B2" s="1">
         <v>44522</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <f>B2-$B$2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10.199999999999999</v>
       </c>
       <c r="B3" s="1">
         <v>44524</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <f>B3-$B$2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9.5</v>
       </c>
       <c r="B4" s="1">
         <v>44525</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <f t="shared" ref="C4:C27" si="0">B4-$B$2</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11.9</v>
       </c>
       <c r="B5" s="1">
         <v>44526</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10.199999999999999</v>
       </c>
       <c r="B6" s="1">
         <v>44527</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13.7</v>
       </c>
       <c r="B7" s="1">
         <v>44528</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13.7</v>
       </c>
       <c r="B8" s="1">
         <v>44529</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10.199999999999999</v>
       </c>
       <c r="B9" s="1">
         <v>44530</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12.5</v>
       </c>
       <c r="B10" s="1">
         <v>44531</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>13.3</v>
       </c>
       <c r="B11" s="1">
         <v>44532</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11.8</v>
       </c>
       <c r="B12" s="1">
         <v>44533</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10.5</v>
       </c>
       <c r="B13" s="1">
         <v>44533</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8.9</v>
       </c>
       <c r="B14" s="1">
         <v>44539</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9.6</v>
       </c>
       <c r="B15" s="1">
         <v>44540</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8.8000000000000007</v>
       </c>
       <c r="B16" s="1">
         <v>44541</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10.5</v>
       </c>
       <c r="B17" s="1">
         <v>44542</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6.1</v>
       </c>
       <c r="B18" s="1">
         <v>44542</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
       <c r="B19" s="1">
         <v>44543</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12.1</v>
       </c>
       <c r="B20" s="1">
         <v>44544</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9.8000000000000007</v>
       </c>
       <c r="B21" s="1">
         <v>44546</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8.6</v>
       </c>
       <c r="B22" s="1">
         <v>44548</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11.2</v>
       </c>
       <c r="B23" s="1">
         <v>44549</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9.6</v>
       </c>
       <c r="B24" s="1">
         <v>44551</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8.9</v>
       </c>
       <c r="B25" s="1">
         <v>44552</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7.4</v>
       </c>
       <c r="B26" s="1">
         <v>44556</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>11.1</v>
       </c>
       <c r="B27" s="1">
         <v>44557</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/GrizWt.xlsx
+++ b/GrizWt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massey/Dropbox/Griz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6210A5E4-D59B-F048-916F-0390AA33FA6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F88BCDC-14BD-BE4E-83A7-AC37986A09FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28260" windowHeight="16220" xr2:uid="{442F6D33-47C8-EF45-9E8B-4B6E9BCB0EB8}"/>
   </bookViews>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DF0AEF-0FAE-B446-938E-395ABA109CC9}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,7 @@
         <v>44525</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C27" si="0">B4-$B$2</f>
+        <f t="shared" ref="C4:C30" si="0">B4-$B$2</f>
         <v>3</v>
       </c>
     </row>
@@ -715,6 +715,42 @@
       <c r="C27">
         <f t="shared" si="0"/>
         <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6.8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44559</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>7.7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44559</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>8.6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44560</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/GrizWt.xlsx
+++ b/GrizWt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massey/Dropbox/Griz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F88BCDC-14BD-BE4E-83A7-AC37986A09FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C521EF-2450-2748-8599-B048384C17E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28260" windowHeight="16220" xr2:uid="{442F6D33-47C8-EF45-9E8B-4B6E9BCB0EB8}"/>
   </bookViews>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DF0AEF-0FAE-B446-938E-395ABA109CC9}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,7 @@
         <v>44525</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C30" si="0">B4-$B$2</f>
+        <f t="shared" ref="C4:C37" si="0">B4-$B$2</f>
         <v>3</v>
       </c>
     </row>
@@ -751,6 +751,90 @@
       <c r="C30">
         <f t="shared" si="0"/>
         <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5.6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44561</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6.1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44562</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7.5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44563</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8.9</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44565</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>8.4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44566</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44570</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4.5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44572</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/GrizWt.xlsx
+++ b/GrizWt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massey/Dropbox/Griz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C521EF-2450-2748-8599-B048384C17E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71C646-AF62-7F42-8E94-40F84E79AC78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28260" windowHeight="16220" xr2:uid="{442F6D33-47C8-EF45-9E8B-4B6E9BCB0EB8}"/>
   </bookViews>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DF0AEF-0FAE-B446-938E-395ABA109CC9}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,7 @@
         <v>44525</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C37" si="0">B4-$B$2</f>
+        <f t="shared" ref="C4:C38" si="0">B4-$B$2</f>
         <v>3</v>
       </c>
     </row>
@@ -835,6 +835,18 @@
       <c r="C37">
         <f t="shared" si="0"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3.8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44574</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/GrizWt.xlsx
+++ b/GrizWt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/massey/Dropbox/Griz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C71C646-AF62-7F42-8E94-40F84E79AC78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F5FC7C-2362-2A47-A8E9-B93D4D0125F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="540" yWindow="460" windowWidth="28260" windowHeight="16220" xr2:uid="{442F6D33-47C8-EF45-9E8B-4B6E9BCB0EB8}"/>
   </bookViews>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DF0AEF-0FAE-B446-938E-395ABA109CC9}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -437,7 +437,7 @@
         <v>44525</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C38" si="0">B4-$B$2</f>
+        <f t="shared" ref="C4:C43" si="0">B4-$B$2</f>
         <v>3</v>
       </c>
     </row>
@@ -847,6 +847,66 @@
       <c r="C38">
         <f t="shared" si="0"/>
         <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1.2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44578</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44578</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0.7</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44580</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1.2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44582</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-2.7</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44585</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
